--- a/testcases/Pytest/DDT/my_data.xlsx
+++ b/testcases/Pytest/DDT/my_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\Selenium\SE_project\testcases\Pytest\DDT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E08213F5-D680-4655-A0A6-E9F1BBC9C7B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F5FD347-6CF0-45CF-B5F9-54A486E11EE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,29 +25,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不错</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>写的不错</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>666</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>来个评论</t>
+    <t>读取文件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>评论验证</t>
+    <t>xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -374,10 +366,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -387,26 +379,20 @@
     <col min="8" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
